--- a/notebooks/IKZF1/input/IKZF1_CVID13_individuals.ipynb.xlsx
+++ b/notebooks/IKZF1/input/IKZF1_CVID13_individuals.ipynb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/IKZF1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94456C82-2206-4A41-8770-559A49156337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E0F5C-A4C6-454C-A7BC-53210FA18386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1460" windowWidth="36980" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10100" yWindow="1780" windowWidth="59080" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="420">
   <si>
     <t>PMID</t>
   </si>
@@ -524,9 +524,6 @@
     <t>HP:0032219</t>
   </si>
   <si>
-    <t>P30Y</t>
-  </si>
-  <si>
     <t>Recurrent infections</t>
   </si>
   <si>
@@ -1149,9 +1146,6 @@
   </si>
   <si>
     <t>NP_006051.1:p.(H167R)</t>
-  </si>
-  <si>
-    <t>P32A</t>
   </si>
   <si>
     <t>PMID:30965037</t>
@@ -1360,12 +1354,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1395,7 +1395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1414,6 +1414,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1720,12 +1724,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="V69" sqref="V69"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -1788,70 +1793,70 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>18</v>
@@ -1869,7 +1874,7 @@
         <v>157</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>159</v>
@@ -1878,16 +1883,16 @@
         <v>161</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>66</v>
@@ -1902,7 +1907,7 @@
         <v>61</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>151</v>
@@ -1941,52 +1946,52 @@
         <v>72</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BR1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CE1" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CF1" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
@@ -2042,70 +2047,70 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AI2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AJ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AN2" t="s">
         <v>33</v>
@@ -2123,7 +2128,7 @@
         <v>158</v>
       </c>
       <c r="AS2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT2" t="s">
         <v>160</v>
@@ -2132,16 +2137,16 @@
         <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AW2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AX2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AY2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AZ2" t="s">
         <v>67</v>
@@ -2156,7 +2161,7 @@
         <v>62</v>
       </c>
       <c r="BD2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BE2" t="s">
         <v>152</v>
@@ -2195,52 +2200,52 @@
         <v>73</v>
       </c>
       <c r="BQ2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BR2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BS2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BT2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BU2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BV2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BW2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BX2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BY2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CA2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CB2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CC2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CD2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CE2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CF2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:84" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2466,7 +2471,7 @@
         <v>137</v>
       </c>
       <c r="U4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="V4" t="s">
         <v>115</v>
@@ -2820,7 +2825,7 @@
         <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s">
         <v>40</v>
@@ -2841,7 +2846,7 @@
         <v>55</v>
       </c>
       <c r="AB7" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="s">
         <v>55</v>
@@ -3463,119 +3468,119 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:84" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:84" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="K13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="Q13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" t="s">
-        <v>163</v>
-      </c>
-      <c r="V13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" t="s">
-        <v>55</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="Q13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="Z13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG13" t="s">
+      <c r="Z13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG13" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3748,10 +3753,10 @@
         <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="V15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W15" t="s">
         <v>55</v>
@@ -3763,7 +3768,7 @@
         <v>55</v>
       </c>
       <c r="Z15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA15" t="s">
         <v>55</v>
@@ -4052,122 +4057,122 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:59" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="K18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S18" t="s">
-        <v>55</v>
-      </c>
-      <c r="T18" t="s">
-        <v>119</v>
-      </c>
-      <c r="U18" t="s">
-        <v>168</v>
-      </c>
-      <c r="V18" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" t="s">
-        <v>55</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ18" t="s">
+      <c r="Q18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AK18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG18" t="s">
+      <c r="AK18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG18" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4638,119 +4643,119 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:59" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="K23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" t="s">
-        <v>55</v>
-      </c>
-      <c r="T23" t="s">
-        <v>143</v>
-      </c>
-      <c r="V23" t="s">
-        <v>55</v>
-      </c>
-      <c r="W23" t="s">
-        <v>55</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ23" t="s">
+      <c r="Q23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ23" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="AK23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG23" t="s">
+      <c r="AK23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG23" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5764,16 +5769,16 @@
     </row>
     <row r="33" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
         <v>201</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>202</v>
       </c>
-      <c r="C33" t="s">
-        <v>203</v>
-      </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -5791,16 +5796,16 @@
         <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s">
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N33" t="s">
         <v>149</v>
@@ -5892,13 +5897,13 @@
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" t="s">
         <v>214</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>215</v>
-      </c>
-      <c r="C34" t="s">
-        <v>216</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -5916,19 +5921,19 @@
         <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K34" t="s">
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s">
         <v>116</v>
       </c>
       <c r="N34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s">
         <v>117</v>
@@ -6004,13 +6009,13 @@
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" t="s">
         <v>214</v>
       </c>
-      <c r="B35" t="s">
-        <v>215</v>
-      </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
@@ -6028,7 +6033,7 @@
         <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K35" t="s">
         <v>31</v>
@@ -6114,13 +6119,13 @@
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" t="s">
         <v>214</v>
       </c>
-      <c r="B36" t="s">
-        <v>215</v>
-      </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
@@ -6138,13 +6143,13 @@
         <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s">
         <v>31</v>
       </c>
       <c r="M36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N36" t="s">
         <v>116</v>
@@ -6224,13 +6229,13 @@
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" t="s">
         <v>214</v>
       </c>
-      <c r="B37" t="s">
-        <v>215</v>
-      </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
@@ -6248,13 +6253,13 @@
         <v>27</v>
       </c>
       <c r="J37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K37" t="s">
         <v>31</v>
       </c>
       <c r="M37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N37" t="s">
         <v>128</v>
@@ -6334,13 +6339,13 @@
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
         <v>214</v>
       </c>
-      <c r="B38" t="s">
-        <v>215</v>
-      </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E38" t="s">
         <v>23</v>
@@ -6358,19 +6363,19 @@
         <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s">
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s">
         <v>142</v>
       </c>
       <c r="N38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s">
         <v>117</v>
@@ -6447,13 +6452,13 @@
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" t="s">
         <v>214</v>
       </c>
-      <c r="B39" t="s">
-        <v>215</v>
-      </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
@@ -6471,19 +6476,19 @@
         <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K39" t="s">
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s">
         <v>150</v>
       </c>
       <c r="N39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O39" t="s">
         <v>117</v>
@@ -6560,13 +6565,13 @@
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s">
         <v>214</v>
       </c>
-      <c r="B40" t="s">
-        <v>215</v>
-      </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
         <v>23</v>
@@ -6584,19 +6589,19 @@
         <v>27</v>
       </c>
       <c r="J40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K40" t="s">
         <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s">
         <v>146</v>
       </c>
       <c r="N40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O40" t="s">
         <v>117</v>
@@ -6673,13 +6678,13 @@
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" t="s">
         <v>214</v>
       </c>
-      <c r="B41" t="s">
-        <v>215</v>
-      </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
@@ -6697,13 +6702,13 @@
         <v>27</v>
       </c>
       <c r="J41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K41" t="s">
         <v>31</v>
       </c>
       <c r="L41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M41" t="s">
         <v>129</v>
@@ -6786,13 +6791,13 @@
     </row>
     <row r="42" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" t="s">
         <v>214</v>
       </c>
-      <c r="B42" t="s">
-        <v>215</v>
-      </c>
       <c r="C42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E42" t="s">
         <v>23</v>
@@ -6810,19 +6815,19 @@
         <v>27</v>
       </c>
       <c r="J42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K42" t="s">
         <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O42" t="s">
         <v>117</v>
@@ -6899,13 +6904,13 @@
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
         <v>214</v>
       </c>
-      <c r="B43" t="s">
-        <v>215</v>
-      </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
@@ -6923,13 +6928,13 @@
         <v>27</v>
       </c>
       <c r="J43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K43" t="s">
         <v>31</v>
       </c>
       <c r="L43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M43" t="s">
         <v>133</v>
@@ -7012,13 +7017,13 @@
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
         <v>214</v>
       </c>
-      <c r="B44" t="s">
-        <v>215</v>
-      </c>
       <c r="C44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
@@ -7036,13 +7041,13 @@
         <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s">
         <v>31</v>
       </c>
       <c r="L44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M44" t="s">
         <v>31</v>
@@ -7125,13 +7130,13 @@
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
         <v>214</v>
       </c>
-      <c r="B45" t="s">
-        <v>215</v>
-      </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
         <v>23</v>
@@ -7149,16 +7154,16 @@
         <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K45" t="s">
         <v>31</v>
       </c>
       <c r="L45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N45" t="s">
         <v>125</v>
@@ -7238,13 +7243,13 @@
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" t="s">
         <v>214</v>
       </c>
-      <c r="B46" t="s">
-        <v>215</v>
-      </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" t="s">
         <v>23</v>
@@ -7262,16 +7267,16 @@
         <v>27</v>
       </c>
       <c r="J46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K46" t="s">
         <v>31</v>
       </c>
       <c r="M46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O46" t="s">
         <v>117</v>
@@ -7348,13 +7353,13 @@
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" t="s">
         <v>269</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>270</v>
-      </c>
-      <c r="C47" t="s">
-        <v>271</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
@@ -7378,10 +7383,10 @@
         <v>31</v>
       </c>
       <c r="L47" t="s">
+        <v>271</v>
+      </c>
+      <c r="M47" t="s">
         <v>272</v>
-      </c>
-      <c r="M47" t="s">
-        <v>273</v>
       </c>
       <c r="N47" t="s">
         <v>126</v>
@@ -7402,10 +7407,10 @@
         <v>55</v>
       </c>
       <c r="T47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V47" t="s">
         <v>55</v>
@@ -7466,18 +7471,18 @@
         <v>55</v>
       </c>
       <c r="BV47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" t="s">
         <v>278</v>
       </c>
-      <c r="B48" t="s">
-        <v>279</v>
-      </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
@@ -7495,19 +7500,19 @@
         <v>27</v>
       </c>
       <c r="J48" t="s">
+        <v>285</v>
+      </c>
+      <c r="K48" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" t="s">
         <v>286</v>
-      </c>
-      <c r="K48" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" t="s">
-        <v>287</v>
       </c>
       <c r="M48" t="s">
         <v>132</v>
       </c>
       <c r="N48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O48" t="s">
         <v>117</v>
@@ -7563,13 +7568,13 @@
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" t="s">
         <v>288</v>
       </c>
-      <c r="B49" t="s">
-        <v>289</v>
-      </c>
       <c r="C49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
@@ -7587,19 +7592,19 @@
         <v>27</v>
       </c>
       <c r="J49" t="s">
+        <v>289</v>
+      </c>
+      <c r="K49" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" t="s">
         <v>290</v>
-      </c>
-      <c r="K49" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" t="s">
-        <v>291</v>
       </c>
       <c r="M49" t="s">
         <v>146</v>
       </c>
       <c r="N49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O49" t="s">
         <v>117</v>
@@ -7697,13 +7702,13 @@
     </row>
     <row r="50" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" t="s">
         <v>292</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>293</v>
-      </c>
-      <c r="C50" t="s">
-        <v>294</v>
       </c>
       <c r="E50" t="s">
         <v>23</v>
@@ -7721,19 +7726,19 @@
         <v>27</v>
       </c>
       <c r="J50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K50" t="s">
         <v>31</v>
       </c>
       <c r="L50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M50" t="s">
         <v>130</v>
       </c>
       <c r="N50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O50" t="s">
         <v>117</v>
@@ -7784,10 +7789,10 @@
         <v>55</v>
       </c>
       <c r="BF50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BG50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BJ50" t="s">
         <v>55</v>
@@ -7807,13 +7812,13 @@
     </row>
     <row r="51" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" t="s">
         <v>292</v>
       </c>
-      <c r="B51" t="s">
-        <v>293</v>
-      </c>
       <c r="C51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" t="s">
         <v>23</v>
@@ -7831,16 +7836,16 @@
         <v>27</v>
       </c>
       <c r="J51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K51" t="s">
         <v>31</v>
       </c>
       <c r="L51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N51" t="s">
         <v>133</v>
@@ -7888,13 +7893,13 @@
         <v>40</v>
       </c>
       <c r="BE51" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BF51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BG51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BJ51" t="s">
         <v>55</v>
@@ -7914,13 +7919,13 @@
     </row>
     <row r="52" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" t="s">
         <v>292</v>
       </c>
-      <c r="B52" t="s">
-        <v>293</v>
-      </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E52" t="s">
         <v>23</v>
@@ -7938,13 +7943,13 @@
         <v>27</v>
       </c>
       <c r="J52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K52" t="s">
         <v>31</v>
       </c>
       <c r="L52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M52" t="s">
         <v>125</v>
@@ -8021,13 +8026,13 @@
     </row>
     <row r="53" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B53" t="s">
         <v>292</v>
       </c>
-      <c r="B53" t="s">
-        <v>293</v>
-      </c>
       <c r="C53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E53" t="s">
         <v>23</v>
@@ -8045,7 +8050,7 @@
         <v>27</v>
       </c>
       <c r="J53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K53" t="s">
         <v>31</v>
@@ -8125,13 +8130,13 @@
     </row>
     <row r="54" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" t="s">
         <v>292</v>
       </c>
-      <c r="B54" t="s">
-        <v>293</v>
-      </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E54" t="s">
         <v>23</v>
@@ -8149,7 +8154,7 @@
         <v>27</v>
       </c>
       <c r="J54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K54" t="s">
         <v>31</v>
@@ -8229,13 +8234,13 @@
     </row>
     <row r="55" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" t="s">
         <v>292</v>
       </c>
-      <c r="B55" t="s">
-        <v>293</v>
-      </c>
       <c r="C55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E55" t="s">
         <v>23</v>
@@ -8259,13 +8264,13 @@
         <v>31</v>
       </c>
       <c r="L55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M55" t="s">
         <v>150</v>
       </c>
       <c r="N55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O55" t="s">
         <v>117</v>
@@ -8339,13 +8344,13 @@
     </row>
     <row r="56" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" t="s">
         <v>292</v>
       </c>
-      <c r="B56" t="s">
-        <v>293</v>
-      </c>
       <c r="C56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E56" t="s">
         <v>23</v>
@@ -8363,13 +8368,13 @@
         <v>27</v>
       </c>
       <c r="J56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K56" t="s">
         <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M56" t="s">
         <v>123</v>
@@ -8446,13 +8451,13 @@
     </row>
     <row r="57" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" t="s">
         <v>292</v>
       </c>
-      <c r="B57" t="s">
-        <v>293</v>
-      </c>
       <c r="C57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E57" t="s">
         <v>23</v>
@@ -8470,7 +8475,7 @@
         <v>27</v>
       </c>
       <c r="J57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K57" t="s">
         <v>31</v>
@@ -8550,13 +8555,13 @@
     </row>
     <row r="58" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" t="s">
         <v>292</v>
       </c>
-      <c r="B58" t="s">
-        <v>293</v>
-      </c>
       <c r="C58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
@@ -8580,13 +8585,13 @@
         <v>31</v>
       </c>
       <c r="L58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M58" t="s">
         <v>50</v>
       </c>
       <c r="N58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O58" t="s">
         <v>117</v>
@@ -8660,13 +8665,13 @@
     </row>
     <row r="59" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>321</v>
+      </c>
+      <c r="B59" t="s">
         <v>322</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>323</v>
-      </c>
-      <c r="C59" t="s">
-        <v>324</v>
       </c>
       <c r="E59" t="s">
         <v>23</v>
@@ -8684,13 +8689,13 @@
         <v>27</v>
       </c>
       <c r="J59" t="s">
+        <v>327</v>
+      </c>
+      <c r="K59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" t="s">
         <v>328</v>
-      </c>
-      <c r="K59" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" t="s">
-        <v>329</v>
       </c>
       <c r="M59" t="s">
         <v>134</v>
@@ -8818,13 +8823,13 @@
     </row>
     <row r="60" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>321</v>
+      </c>
+      <c r="B60" t="s">
         <v>322</v>
       </c>
-      <c r="B60" t="s">
-        <v>323</v>
-      </c>
       <c r="C60" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
@@ -8842,16 +8847,16 @@
         <v>27</v>
       </c>
       <c r="J60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K60" t="s">
         <v>31</v>
       </c>
       <c r="M60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O60" t="s">
         <v>117</v>
@@ -8917,7 +8922,7 @@
         <v>55</v>
       </c>
       <c r="AJ60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO60" t="s">
         <v>141</v>
@@ -8926,10 +8931,10 @@
         <v>40</v>
       </c>
       <c r="AR60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AW60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AZ60" t="s">
         <v>55</v>
@@ -8961,13 +8966,13 @@
     </row>
     <row r="61" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" t="s">
         <v>322</v>
       </c>
-      <c r="B61" t="s">
-        <v>323</v>
-      </c>
       <c r="C61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
@@ -8985,16 +8990,16 @@
         <v>27</v>
       </c>
       <c r="J61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K61" t="s">
         <v>31</v>
       </c>
       <c r="M61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O61" t="s">
         <v>117</v>
@@ -9060,7 +9065,7 @@
         <v>55</v>
       </c>
       <c r="AJ61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AO61" t="s">
         <v>55</v>
@@ -9072,7 +9077,7 @@
         <v>55</v>
       </c>
       <c r="AW61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AZ61" t="s">
         <v>55</v>
@@ -9084,7 +9089,7 @@
         <v>55</v>
       </c>
       <c r="BF61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BG61" t="s">
         <v>55</v>
@@ -9104,13 +9109,13 @@
     </row>
     <row r="62" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>331</v>
+      </c>
+      <c r="B62" t="s">
         <v>332</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>333</v>
-      </c>
-      <c r="C62" t="s">
-        <v>334</v>
       </c>
       <c r="E62" t="s">
         <v>23</v>
@@ -9128,19 +9133,19 @@
         <v>27</v>
       </c>
       <c r="J62" t="s">
+        <v>338</v>
+      </c>
+      <c r="K62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" t="s">
         <v>339</v>
-      </c>
-      <c r="K62" t="s">
-        <v>31</v>
-      </c>
-      <c r="L62" t="s">
-        <v>340</v>
       </c>
       <c r="M62" t="s">
         <v>50</v>
       </c>
       <c r="N62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O62" t="s">
         <v>117</v>
@@ -9218,16 +9223,16 @@
         <v>55</v>
       </c>
       <c r="AQ62" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>340</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE62" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="AW62" t="s">
-        <v>341</v>
-      </c>
-      <c r="BB62" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE62" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="BY62" t="s">
         <v>50</v>
@@ -9235,16 +9240,16 @@
     </row>
     <row r="63" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>341</v>
+      </c>
+      <c r="B63" t="s">
         <v>342</v>
       </c>
-      <c r="B63" t="s">
-        <v>343</v>
-      </c>
       <c r="C63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E63" t="s">
         <v>23</v>
@@ -9262,13 +9267,13 @@
         <v>27</v>
       </c>
       <c r="J63" t="s">
+        <v>348</v>
+      </c>
+      <c r="K63" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" t="s">
         <v>349</v>
-      </c>
-      <c r="K63" t="s">
-        <v>31</v>
-      </c>
-      <c r="L63" t="s">
-        <v>350</v>
       </c>
       <c r="M63" t="s">
         <v>123</v>
@@ -9333,13 +9338,13 @@
     </row>
     <row r="64" spans="1:78" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" t="s">
         <v>342</v>
       </c>
-      <c r="B64" t="s">
-        <v>343</v>
-      </c>
       <c r="C64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
@@ -9357,7 +9362,7 @@
         <v>27</v>
       </c>
       <c r="J64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K64" t="s">
         <v>31</v>
@@ -9366,7 +9371,7 @@
         <v>119</v>
       </c>
       <c r="N64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O64" t="s">
         <v>117</v>
@@ -9425,13 +9430,13 @@
     </row>
     <row r="65" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>341</v>
+      </c>
+      <c r="B65" t="s">
         <v>342</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>343</v>
-      </c>
-      <c r="C65" t="s">
-        <v>344</v>
       </c>
       <c r="E65" t="s">
         <v>23</v>
@@ -9449,16 +9454,16 @@
         <v>27</v>
       </c>
       <c r="J65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K65" t="s">
         <v>31</v>
       </c>
       <c r="M65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O65" t="s">
         <v>117</v>
@@ -9509,7 +9514,7 @@
         <v>55</v>
       </c>
       <c r="BG65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BZ65" t="s">
         <v>55</v>
@@ -9517,13 +9522,13 @@
     </row>
     <row r="66" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>355</v>
+      </c>
+      <c r="B66" t="s">
         <v>356</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>357</v>
-      </c>
-      <c r="C66" t="s">
-        <v>358</v>
       </c>
       <c r="E66" t="s">
         <v>23</v>
@@ -9541,19 +9546,19 @@
         <v>27</v>
       </c>
       <c r="J66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K66" t="s">
         <v>31</v>
       </c>
       <c r="L66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s">
         <v>135</v>
       </c>
       <c r="N66" t="s">
-        <v>372</v>
+        <v>195</v>
       </c>
       <c r="O66" t="s">
         <v>117</v>
@@ -9639,13 +9644,13 @@
     </row>
     <row r="67" spans="1:84" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" t="s">
         <v>356</v>
       </c>
-      <c r="B67" t="s">
-        <v>357</v>
-      </c>
       <c r="C67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E67" t="s">
         <v>23</v>
@@ -9663,7 +9668,7 @@
         <v>27</v>
       </c>
       <c r="J67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K67" t="s">
         <v>31</v>
@@ -9672,7 +9677,7 @@
         <v>120</v>
       </c>
       <c r="N67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O67" t="s">
         <v>117</v>
@@ -9755,13 +9760,13 @@
     </row>
     <row r="68" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>355</v>
+      </c>
+      <c r="B68" t="s">
         <v>356</v>
       </c>
-      <c r="B68" t="s">
-        <v>357</v>
-      </c>
       <c r="C68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E68" t="s">
         <v>23</v>
@@ -9779,13 +9784,13 @@
         <v>27</v>
       </c>
       <c r="J68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K68" t="s">
         <v>31</v>
       </c>
       <c r="M68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N68" t="s">
         <v>138</v>
@@ -9809,13 +9814,13 @@
         <v>40</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA68" s="5" t="s">
         <v>55</v>
@@ -9871,13 +9876,13 @@
     </row>
     <row r="69" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B69" t="s">
+        <v>372</v>
+      </c>
+      <c r="C69" t="s">
         <v>373</v>
-      </c>
-      <c r="B69" t="s">
-        <v>374</v>
-      </c>
-      <c r="C69" t="s">
-        <v>375</v>
       </c>
       <c r="E69" t="s">
         <v>23</v>
@@ -9895,16 +9900,16 @@
         <v>27</v>
       </c>
       <c r="J69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K69" t="s">
         <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M69" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N69" t="s">
         <v>131</v>
@@ -9913,7 +9918,7 @@
         <v>117</v>
       </c>
       <c r="P69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q69" t="s">
         <v>31</v>
@@ -9951,13 +9956,13 @@
     </row>
     <row r="70" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B70" t="s">
+        <v>372</v>
+      </c>
+      <c r="C70" t="s">
         <v>374</v>
-      </c>
-      <c r="C70" t="s">
-        <v>376</v>
       </c>
       <c r="E70" t="s">
         <v>23</v>
@@ -9975,22 +9980,22 @@
         <v>27</v>
       </c>
       <c r="J70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K70" t="s">
         <v>31</v>
       </c>
       <c r="M70" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O70" t="s">
         <v>117</v>
       </c>
       <c r="P70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q70" t="s">
         <v>31</v>
@@ -10025,13 +10030,13 @@
     </row>
     <row r="71" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C71" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E71" t="s">
         <v>23</v>
@@ -10049,22 +10054,22 @@
         <v>27</v>
       </c>
       <c r="J71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K71" t="s">
         <v>31</v>
       </c>
       <c r="M71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N71" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O71" t="s">
         <v>60</v>
       </c>
       <c r="P71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q71" t="s">
         <v>31</v>
@@ -10099,13 +10104,13 @@
     </row>
     <row r="72" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C72" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
         <v>23</v>
@@ -10123,7 +10128,7 @@
         <v>27</v>
       </c>
       <c r="J72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K72" t="s">
         <v>31</v>
@@ -10138,7 +10143,7 @@
         <v>117</v>
       </c>
       <c r="P72" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q72" t="s">
         <v>31</v>
@@ -10173,13 +10178,13 @@
     </row>
     <row r="73" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>383</v>
+      </c>
+      <c r="B73" t="s">
+        <v>384</v>
+      </c>
+      <c r="C73" t="s">
         <v>385</v>
-      </c>
-      <c r="B73" t="s">
-        <v>386</v>
-      </c>
-      <c r="C73" t="s">
-        <v>387</v>
       </c>
       <c r="E73" t="s">
         <v>23</v>
@@ -10197,25 +10202,25 @@
         <v>27</v>
       </c>
       <c r="J73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K73" t="s">
         <v>31</v>
       </c>
       <c r="L73" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O73" t="s">
         <v>60</v>
       </c>
       <c r="P73" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q73" t="s">
         <v>31</v>
@@ -10239,7 +10244,7 @@
         <v>55</v>
       </c>
       <c r="AF73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG73" t="s">
         <v>55</v>
@@ -10254,7 +10259,7 @@
         <v>55</v>
       </c>
       <c r="AQ73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AT73" s="9" t="s">
         <v>40</v>
@@ -10266,16 +10271,16 @@
         <v>55</v>
       </c>
       <c r="BE73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BF73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BG73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BI73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BR73" t="s">
         <v>55</v>
@@ -10292,13 +10297,13 @@
     </row>
     <row r="74" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B74" t="s">
+        <v>384</v>
+      </c>
+      <c r="C74" t="s">
         <v>386</v>
-      </c>
-      <c r="C74" t="s">
-        <v>388</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -10316,13 +10321,13 @@
         <v>27</v>
       </c>
       <c r="J74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K74" t="s">
         <v>31</v>
       </c>
       <c r="M74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N74" t="s">
         <v>129</v>
@@ -10331,7 +10336,7 @@
         <v>117</v>
       </c>
       <c r="P74" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q74" t="s">
         <v>31</v>
@@ -10370,7 +10375,7 @@
         <v>40</v>
       </c>
       <c r="AQ74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AT74" s="9" t="s">
         <v>55</v>
@@ -10382,16 +10387,16 @@
         <v>55</v>
       </c>
       <c r="BE74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BF74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BG74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BI74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BR74" t="s">
         <v>55</v>
@@ -10408,13 +10413,13 @@
     </row>
     <row r="75" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B75" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C75" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
@@ -10432,13 +10437,13 @@
         <v>27</v>
       </c>
       <c r="J75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K75" t="s">
         <v>31</v>
       </c>
       <c r="M75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N75" t="s">
         <v>134</v>
@@ -10447,7 +10452,7 @@
         <v>117</v>
       </c>
       <c r="P75" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q75" t="s">
         <v>31</v>
@@ -10471,7 +10476,7 @@
         <v>55</v>
       </c>
       <c r="AF75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG75" t="s">
         <v>55</v>
@@ -10486,7 +10491,7 @@
         <v>40</v>
       </c>
       <c r="AQ75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AT75" s="9" t="s">
         <v>55</v>
@@ -10498,16 +10503,16 @@
         <v>55</v>
       </c>
       <c r="BE75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BF75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BG75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BI75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BR75" t="s">
         <v>55</v>
@@ -10524,13 +10529,13 @@
     </row>
     <row r="76" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B76" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C76" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
@@ -10548,13 +10553,13 @@
         <v>27</v>
       </c>
       <c r="J76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K76" t="s">
         <v>31</v>
       </c>
       <c r="M76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N76" t="s">
         <v>147</v>
@@ -10563,7 +10568,7 @@
         <v>117</v>
       </c>
       <c r="P76" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q76" t="s">
         <v>31</v>
@@ -10602,7 +10607,7 @@
         <v>40</v>
       </c>
       <c r="AQ76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AT76" s="9" t="s">
         <v>55</v>
@@ -10614,16 +10619,16 @@
         <v>55</v>
       </c>
       <c r="BE76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="BF76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="BG76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="BI76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="BR76" t="s">
         <v>55</v>
@@ -10640,13 +10645,13 @@
     </row>
     <row r="77" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E77" t="s">
         <v>23</v>
@@ -10664,7 +10669,7 @@
         <v>27</v>
       </c>
       <c r="J77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K77" t="s">
         <v>31</v>
@@ -10673,13 +10678,13 @@
         <v>115</v>
       </c>
       <c r="N77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O77" t="s">
         <v>117</v>
       </c>
       <c r="P77" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q77" t="s">
         <v>31</v>
@@ -10756,13 +10761,13 @@
     </row>
     <row r="78" spans="1:84" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C78" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E78" t="s">
         <v>23</v>
@@ -10780,7 +10785,7 @@
         <v>27</v>
       </c>
       <c r="J78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K78" t="s">
         <v>31</v>
@@ -10795,7 +10800,7 @@
         <v>117</v>
       </c>
       <c r="P78" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q78" t="s">
         <v>31</v>
@@ -10872,13 +10877,13 @@
     </row>
     <row r="79" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -10896,16 +10901,16 @@
         <v>27</v>
       </c>
       <c r="J79" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K79" t="s">
         <v>31</v>
       </c>
       <c r="L79" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N79" t="s">
         <v>121</v>
@@ -10914,7 +10919,7 @@
         <v>117</v>
       </c>
       <c r="P79" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q79" t="s">
         <v>31</v>
@@ -10938,7 +10943,7 @@
         <v>55</v>
       </c>
       <c r="AF79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG79" t="s">
         <v>55</v>
@@ -10953,7 +10958,7 @@
         <v>55</v>
       </c>
       <c r="AQ79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AT79" t="s">
         <v>55</v>
@@ -10965,16 +10970,16 @@
         <v>55</v>
       </c>
       <c r="BE79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BF79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BG79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BI79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BR79" t="s">
         <v>55</v>
@@ -10991,13 +10996,13 @@
     </row>
     <row r="80" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>395</v>
+      </c>
+      <c r="B80" t="s">
+        <v>396</v>
+      </c>
+      <c r="C80" t="s">
         <v>397</v>
-      </c>
-      <c r="B80" t="s">
-        <v>398</v>
-      </c>
-      <c r="C80" t="s">
-        <v>399</v>
       </c>
       <c r="E80" t="s">
         <v>23</v>
@@ -11015,13 +11020,13 @@
         <v>27</v>
       </c>
       <c r="J80" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K80" t="s">
         <v>31</v>
       </c>
       <c r="L80" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M80" t="s">
         <v>147</v>
@@ -11140,13 +11145,13 @@
     </row>
     <row r="81" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>402</v>
+      </c>
+      <c r="B81" t="s">
+        <v>403</v>
+      </c>
+      <c r="C81" t="s">
         <v>404</v>
-      </c>
-      <c r="B81" t="s">
-        <v>405</v>
-      </c>
-      <c r="C81" t="s">
-        <v>406</v>
       </c>
       <c r="E81" t="s">
         <v>23</v>
@@ -11164,19 +11169,19 @@
         <v>27</v>
       </c>
       <c r="J81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K81" t="s">
         <v>31</v>
       </c>
       <c r="L81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N81" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O81" t="s">
         <v>117</v>
@@ -11197,42 +11202,42 @@
         <v>31</v>
       </c>
       <c r="AF81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AO81" t="s">
         <v>55</v>
       </c>
       <c r="AQ81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AY81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BE81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BF81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BG81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BI81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>406</v>
+      </c>
+      <c r="B82" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82" t="s">
         <v>408</v>
       </c>
-      <c r="B82" t="s">
-        <v>409</v>
-      </c>
-      <c r="C82" t="s">
-        <v>410</v>
-      </c>
       <c r="D82" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E82" t="s">
         <v>23</v>
@@ -11250,13 +11255,13 @@
         <v>27</v>
       </c>
       <c r="J82" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K82" t="s">
         <v>31</v>
       </c>
       <c r="L82" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M82" t="s">
         <v>135</v>
@@ -11318,13 +11323,13 @@
     </row>
     <row r="83" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B83" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C83" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
@@ -11342,13 +11347,13 @@
         <v>27</v>
       </c>
       <c r="J83" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K83" t="s">
         <v>31</v>
       </c>
       <c r="L83" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M83" t="s">
         <v>119</v>
@@ -11395,13 +11400,13 @@
     </row>
     <row r="84" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B84" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C84" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E84" t="s">
         <v>23</v>
@@ -11419,16 +11424,16 @@
         <v>27</v>
       </c>
       <c r="J84" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K84" t="s">
         <v>31</v>
       </c>
       <c r="M84" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N84" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O84" t="s">
         <v>117</v>
@@ -11446,22 +11451,22 @@
         <v>55</v>
       </c>
       <c r="V84" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AW84" t="s">
         <v>40</v>
       </c>
       <c r="BE84" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="BF84" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="BG84" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="BI84" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
